--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1488962.797451634</v>
+        <v>1567520.401944733</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083134</v>
+        <v>606553.2040797162</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5994841.162373176</v>
+        <v>6451837.715338564</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>226.0974155324834</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>103.1833105422776</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -668,7 +670,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -725,7 +727,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -832,10 +834,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>82.14201637551351</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -877,10 +879,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>125.1716544454846</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>248.255768667546</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
@@ -908,13 +910,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>45.10878876340973</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>67.4289457920829</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1111,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>102.7176563887149</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>191.7475258005736</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1293,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1309,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430572</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1351,7 +1353,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>53.06991172717037</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>17.96377529449097</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1385,7 +1387,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>250.2071507222274</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1540,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>73.01514676193507</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,7 +1584,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>155.2022955251545</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1610,13 +1612,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>297.9417647281719</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>229.7508558152693</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1673,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1777,10 +1779,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170487</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.05677735225759</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1859,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1898,7 +1900,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2017,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>67.42894579208244</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2138,7 +2140,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2245,7 +2247,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2257,7 +2259,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>240.9739924675</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>229.1468391340013</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>225.1454739790296</v>
       </c>
     </row>
     <row r="23">
@@ -2527,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>67.42894579208379</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2719,7 +2721,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>7.264602967362117</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2965,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>128.7778691150967</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -3193,19 +3195,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>43.4889870101585</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>246.5372039389847</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3475,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U37" t="n">
-        <v>67.42894579208244</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3554,7 +3556,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>49.17722654850653</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3676,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3727,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3749,16 +3751,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>409.0867647799247</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>383.8365227921904</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3910,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002301</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3955,10 +3957,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>254.0931201069085</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>353.2935475644655</v>
+        <v>29.92029206558524</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4147,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>199.1362892344171</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>260.435650476763</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1270.561784452093</v>
+        <v>532.1876844265735</v>
       </c>
       <c r="C2" t="n">
-        <v>832.4193116355167</v>
+        <v>427.9621182222527</v>
       </c>
       <c r="D2" t="n">
-        <v>800.5499308503653</v>
+        <v>396.0927374371013</v>
       </c>
       <c r="E2" t="n">
-        <v>770.8155900490646</v>
+        <v>366.3583966358005</v>
       </c>
       <c r="F2" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K2" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L2" t="n">
-        <v>488.6559039815464</v>
+        <v>687.5406628060929</v>
       </c>
       <c r="M2" t="n">
-        <v>488.6559039815464</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2586.408952615265</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U2" t="n">
-        <v>2327.186649932281</v>
+        <v>2190.771296621484</v>
       </c>
       <c r="V2" t="n">
-        <v>2327.186649932281</v>
+        <v>2190.771296621484</v>
       </c>
       <c r="W2" t="n">
-        <v>1922.331195343315</v>
+        <v>1785.915842032517</v>
       </c>
       <c r="X2" t="n">
-        <v>1503.188731922625</v>
+        <v>1366.773378611828</v>
       </c>
       <c r="Y2" t="n">
-        <v>1498.943012262683</v>
+        <v>958.4872549114813</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559.5729615199214</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C3" t="n">
-        <v>453.1165003565636</v>
+        <v>1406.536348780555</v>
       </c>
       <c r="D3" t="n">
-        <v>358.0262115031169</v>
+        <v>1311.446059927108</v>
       </c>
       <c r="E3" t="n">
-        <v>263.9057968300706</v>
+        <v>1217.325645254062</v>
       </c>
       <c r="F3" t="n">
-        <v>180.5219584462322</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G3" t="n">
-        <v>95.13686871241609</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862856</v>
+        <v>1006.82106495262</v>
       </c>
       <c r="I3" t="n">
-        <v>79.46488968908616</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J3" t="n">
-        <v>404.0232146552985</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K3" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="L3" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="M3" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="N3" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="O3" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="P3" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q3" t="n">
-        <v>1599.468199913098</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R3" t="n">
-        <v>1716.640978007438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S3" t="n">
-        <v>1653.185540455821</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T3" t="n">
-        <v>1523.006896786422</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U3" t="n">
-        <v>1346.67034978639</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V3" t="n">
-        <v>1147.55283184839</v>
+        <v>2100.972680272381</v>
       </c>
       <c r="W3" t="n">
-        <v>962.2300775815838</v>
+        <v>1915.649926005575</v>
       </c>
       <c r="X3" t="n">
-        <v>807.3626418204638</v>
+        <v>1760.782490244455</v>
       </c>
       <c r="Y3" t="n">
-        <v>680.8768625996845</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>986.8689873181997</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>814.3072758014247</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>648.4292830029474</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>478.6712792536846</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>301.9642252154408</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>136.3729502412685</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4498,13 +4500,13 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596754</v>
+        <v>2154.361157596755</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567096</v>
+        <v>2501.868051567097</v>
       </c>
       <c r="Q4" t="n">
         <v>2670.060826431428</v>
@@ -4513,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U4" t="n">
         <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="X4" t="n">
-        <v>1406.107276723079</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y4" t="n">
-        <v>1178.687606037187</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2003.531199230768</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C5" t="n">
-        <v>1752.767796536277</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D5" t="n">
-        <v>1316.858011710722</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E5" t="n">
-        <v>883.0832668690169</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F5" t="n">
-        <v>455.2158372782247</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J5" t="n">
         <v>488.6559039815464</v>
@@ -4571,22 +4573,22 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M5" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="N5" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4595,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>2045.1381447155</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X5" t="n">
-        <v>2030.036085335214</v>
+        <v>2623.681342788512</v>
       </c>
       <c r="Y5" t="n">
-        <v>2025.790365675272</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="6">
@@ -4638,31 +4640,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>377.9595414948409</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K6" t="n">
-        <v>1038.799596036619</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="L6" t="n">
-        <v>1038.799596036619</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="M6" t="n">
-        <v>1038.799596036619</v>
+        <v>740.3049442308646</v>
       </c>
       <c r="N6" t="n">
-        <v>1038.799596036619</v>
+        <v>740.3049442308646</v>
       </c>
       <c r="O6" t="n">
-        <v>1038.799596036619</v>
+        <v>1401.144998772643</v>
       </c>
       <c r="P6" t="n">
-        <v>1058.729261281022</v>
+        <v>1401.144998772643</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4720,7 +4722,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4747,16 +4749,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2601.950780176799</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>2356.071333755254</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>2356.071333755254</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="V7" t="n">
         <v>2069.115825625685</v>
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1267.502422415565</v>
+        <v>648.8602641703436</v>
       </c>
       <c r="C8" t="n">
-        <v>1233.400353639393</v>
+        <v>210.7177913537669</v>
       </c>
       <c r="D8" t="n">
-        <v>1201.530972854241</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>1171.796632052941</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>743.9292024621484</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
         <v>53.40121652862856</v>
@@ -4805,16 +4807,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4847,7 +4849,7 @@
         <v>1483.445958355598</v>
       </c>
       <c r="Y8" t="n">
-        <v>1289.761588860069</v>
+        <v>1075.159834655251</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4886,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1058.729261281022</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="N9" t="n">
-        <v>1058.729261281022</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="O9" t="n">
-        <v>1058.729261281022</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="P9" t="n">
-        <v>1058.729261281022</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>959.897665623735</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4984,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W10" t="n">
-        <v>1624.527709695201</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X10" t="n">
-        <v>1379.135955028614</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y10" t="n">
-        <v>1151.716284342722</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1574.035941128879</v>
+        <v>2104.363000055491</v>
       </c>
       <c r="C11" t="n">
-        <v>1574.035941128879</v>
+        <v>1666.220527238914</v>
       </c>
       <c r="D11" t="n">
-        <v>1138.126156303324</v>
+        <v>1230.310742413359</v>
       </c>
       <c r="E11" t="n">
-        <v>1138.126156303324</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F11" t="n">
-        <v>710.2587267125314</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G11" t="n">
-        <v>308.8608953357952</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J11" t="n">
-        <v>491.3810871096955</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>1185.945282862319</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>1185.945282862319</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="M11" t="n">
-        <v>1185.945282862319</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="N11" t="n">
-        <v>1185.945282862319</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.102936374607</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.66713212723</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085825</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.319982838882</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U11" t="n">
-        <v>2806.319982838882</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V11" t="n">
-        <v>2806.319982838882</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W11" t="n">
-        <v>2401.464528249915</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X11" t="n">
-        <v>1982.322064829226</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y11" t="n">
-        <v>1574.035941128879</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J12" t="n">
-        <v>366.890248656548</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K12" t="n">
-        <v>366.890248656548</v>
+        <v>774.5036193892311</v>
       </c>
       <c r="L12" t="n">
-        <v>1061.454444409171</v>
+        <v>774.5036193892311</v>
       </c>
       <c r="M12" t="n">
-        <v>1061.454444409171</v>
+        <v>774.5036193892311</v>
       </c>
       <c r="N12" t="n">
-        <v>1061.454444409171</v>
+        <v>774.5036193892311</v>
       </c>
       <c r="O12" t="n">
-        <v>1061.454444409171</v>
+        <v>774.5036193892311</v>
       </c>
       <c r="P12" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>903.4437844817653</v>
+        <v>1084.16831070541</v>
       </c>
       <c r="C13" t="n">
-        <v>730.8820729649902</v>
+        <v>911.6065991886352</v>
       </c>
       <c r="D13" t="n">
-        <v>565.0040801665129</v>
+        <v>745.7286063901579</v>
       </c>
       <c r="E13" t="n">
-        <v>395.2460764172502</v>
+        <v>575.9706026408952</v>
       </c>
       <c r="F13" t="n">
-        <v>218.5390223790064</v>
+        <v>399.2635486026514</v>
       </c>
       <c r="G13" t="n">
-        <v>218.5390223790064</v>
+        <v>233.6722736284791</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7863488821023</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2651.368188264949</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2651.368188264949</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T13" t="n">
-        <v>2405.488741843405</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U13" t="n">
-        <v>2127.05574109651</v>
+        <v>2307.780267320155</v>
       </c>
       <c r="V13" t="n">
-        <v>1840.10023296694</v>
+        <v>2020.824759190585</v>
       </c>
       <c r="W13" t="n">
-        <v>1568.073828553232</v>
+        <v>1748.798354776877</v>
       </c>
       <c r="X13" t="n">
-        <v>1322.682073886644</v>
+        <v>1503.406600110289</v>
       </c>
       <c r="Y13" t="n">
-        <v>1095.262403200752</v>
+        <v>1275.986929424397</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1323.950922813743</v>
+        <v>2104.363000055491</v>
       </c>
       <c r="C14" t="n">
-        <v>885.808449997166</v>
+        <v>1666.220527238914</v>
       </c>
       <c r="D14" t="n">
-        <v>885.808449997166</v>
+        <v>1230.310742413359</v>
       </c>
       <c r="E14" t="n">
-        <v>885.808449997166</v>
+        <v>796.5359975716538</v>
       </c>
       <c r="F14" t="n">
-        <v>457.9410204063738</v>
+        <v>495.5847200684498</v>
       </c>
       <c r="G14" t="n">
-        <v>56.54318902963762</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="H14" t="n">
-        <v>56.54318902963762</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J14" t="n">
-        <v>491.3810871096955</v>
+        <v>254.9523156162913</v>
       </c>
       <c r="K14" t="n">
-        <v>1185.945282862319</v>
+        <v>1089.302607574469</v>
       </c>
       <c r="L14" t="n">
-        <v>1185.945282862319</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="M14" t="n">
-        <v>1185.945282862319</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="N14" t="n">
-        <v>1185.945282862319</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.102936374607</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P14" t="n">
-        <v>2090.66713212723</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q14" t="n">
-        <v>2637.165918085825</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.319982838882</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U14" t="n">
-        <v>2806.319982838882</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V14" t="n">
-        <v>2574.248411308306</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W14" t="n">
-        <v>2169.39295671934</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X14" t="n">
-        <v>1750.25049329865</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y14" t="n">
-        <v>1750.25049329865</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I15" t="n">
-        <v>82.19007281723522</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J15" t="n">
-        <v>406.7483977834476</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K15" t="n">
-        <v>1061.454444409171</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.454444409171</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M15" t="n">
-        <v>1061.454444409171</v>
+        <v>1254.175078389668</v>
       </c>
       <c r="N15" t="n">
-        <v>1061.454444409171</v>
+        <v>1254.175078389668</v>
       </c>
       <c r="O15" t="n">
-        <v>1061.454444409171</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="P15" t="n">
-        <v>1061.454444409171</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="Q15" t="n">
-        <v>1602.193383041247</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>765.6202370743899</v>
+        <v>962.5053054384693</v>
       </c>
       <c r="C16" t="n">
-        <v>593.0585255576149</v>
+        <v>789.9435939216943</v>
       </c>
       <c r="D16" t="n">
-        <v>427.1805327591376</v>
+        <v>624.065601123217</v>
       </c>
       <c r="E16" t="n">
-        <v>257.4225290098748</v>
+        <v>454.3075973739543</v>
       </c>
       <c r="F16" t="n">
-        <v>80.71547497163104</v>
+        <v>277.6005433357104</v>
       </c>
       <c r="G16" t="n">
-        <v>56.12639965677763</v>
+        <v>112.0092683615381</v>
       </c>
       <c r="H16" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2513.544640857574</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.665194436029</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U16" t="n">
-        <v>1989.232193689134</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V16" t="n">
-        <v>1702.276685559565</v>
+        <v>1899.161753923644</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.250281145856</v>
+        <v>1627.135349509936</v>
       </c>
       <c r="X16" t="n">
-        <v>1184.858526479269</v>
+        <v>1381.743594843348</v>
       </c>
       <c r="Y16" t="n">
-        <v>957.4388557933771</v>
+        <v>1154.323924157457</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5513,28 +5515,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>537.5155277236975</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L17" t="n">
-        <v>537.5155277236975</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5546,19 +5548,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5591,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>1133.616358467827</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>1133.616358467827</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="M18" t="n">
-        <v>1133.616358467827</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="N18" t="n">
-        <v>1133.616358467827</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O18" t="n">
-        <v>1133.616358467827</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P18" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
         <v>1765.500601749588</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="20">
@@ -5753,16 +5755,16 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>1286.300469346936</v>
       </c>
       <c r="L20" t="n">
-        <v>1371.865819681875</v>
+        <v>1286.300469346936</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987181</v>
+        <v>2443.348304557487</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="O20" t="n">
         <v>3569.079287993934</v>
@@ -5777,13 +5779,13 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
         <v>4187.483659846699</v>
@@ -5832,19 +5834,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>782.9943603411569</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="L21" t="n">
-        <v>782.9943603411569</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="M21" t="n">
-        <v>782.9943603411569</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="N21" t="n">
-        <v>782.9943603411569</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="O21" t="n">
-        <v>782.9943603411569</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="P21" t="n">
         <v>1224.761663117513</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.659051657336</v>
+        <v>1011.560997133398</v>
       </c>
       <c r="C22" t="n">
-        <v>920.0973401405612</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D22" t="n">
-        <v>754.2193473420839</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2559.679081471576</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>2316.271008272081</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V22" t="n">
-        <v>2029.315500142511</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W22" t="n">
-        <v>1757.289095728803</v>
+        <v>1676.191041204861</v>
       </c>
       <c r="X22" t="n">
-        <v>1511.897341062215</v>
+        <v>1430.799286538274</v>
       </c>
       <c r="Y22" t="n">
-        <v>1284.477670376323</v>
+        <v>1203.379615852385</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>557.2627364873769</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6071,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>782.9943603411569</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>782.9943603411569</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>782.9943603411569</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N24" t="n">
-        <v>782.9943603411569</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O24" t="n">
-        <v>782.9943603411569</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P24" t="n">
-        <v>1602.717526820355</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
         <v>1765.500601749588</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>3575.440564248063</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>3402.878852731288</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>3237.000859932811</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>3067.242856183548</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K25" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O25" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q25" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="T25" t="n">
-        <v>2683.3639582443</v>
+        <v>4867.162567117437</v>
       </c>
       <c r="U25" t="n">
-        <v>2404.930957497405</v>
+        <v>4799.052520862807</v>
       </c>
       <c r="V25" t="n">
-        <v>2117.975449367836</v>
+        <v>4512.097012733238</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>4240.070608319529</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>3994.678853652942</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>3767.25918296705</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>475.2748675296854</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>475.2748675296854</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>475.2748675296854</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E28" t="n">
         <v>444.5591692831957</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6537,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>927.0677766831641</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C31" t="n">
-        <v>754.506065166389</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D31" t="n">
-        <v>588.6280723679117</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E31" t="n">
-        <v>418.8700686186489</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F31" t="n">
-        <v>242.1630145804051</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6661,10 +6663,10 @@
         <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1346.306066088043</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1118.886395402151</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6701,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>605.8694973157604</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>1680.92946356862</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2837.977298779171</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>3963.708282215618</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6783,10 +6785,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N33" t="n">
         <v>1765.500601749588</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1011.560997133398</v>
+        <v>927.0677766831641</v>
       </c>
       <c r="C34" t="n">
-        <v>838.9992856166232</v>
+        <v>754.506065166389</v>
       </c>
       <c r="D34" t="n">
-        <v>673.1212928181459</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2674.992180466348</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2429.112734044803</v>
       </c>
       <c r="U34" t="n">
-        <v>2043.354335029155</v>
+        <v>2150.679733297909</v>
       </c>
       <c r="V34" t="n">
-        <v>1756.398826899586</v>
+        <v>1863.724225168339</v>
       </c>
       <c r="W34" t="n">
-        <v>1484.372422485877</v>
+        <v>1591.697820754631</v>
       </c>
       <c r="X34" t="n">
-        <v>1238.98066781929</v>
+        <v>1346.306066088043</v>
       </c>
       <c r="Y34" t="n">
-        <v>1011.560997133398</v>
+        <v>1118.886395402151</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6925,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>3738.23335274699</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7123,7 +7125,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U37" t="n">
         <v>2404.930957497405</v>
@@ -7160,46 +7162,46 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>3137.402081918264</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>4117.581748488571</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4945.891623321967</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
+        <v>4943.887948785925</v>
+      </c>
+      <c r="R38" t="n">
         <v>5113.042013538981</v>
       </c>
-      <c r="R38" t="n">
-        <v>5113.04201353898</v>
-      </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
         <v>4809.322912595856</v>
@@ -7211,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354724</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>463.598980006608</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>881.808861774569</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955482</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338908</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471579</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050034</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303139</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.41112617357</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759861</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093274</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1230.992967093274</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1363.953402140615</v>
+        <v>2104.363000055491</v>
       </c>
       <c r="C41" t="n">
-        <v>925.8109293240379</v>
+        <v>1666.220527238914</v>
       </c>
       <c r="D41" t="n">
-        <v>489.9011444984824</v>
+        <v>1230.310742413359</v>
       </c>
       <c r="E41" t="n">
-        <v>56.12639965677763</v>
+        <v>796.5359975716538</v>
       </c>
       <c r="F41" t="n">
-        <v>56.12639965677763</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="G41" t="n">
-        <v>56.12639965677763</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>56.12639965677763</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J41" t="n">
-        <v>56.12639965677763</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>722.6273955810118</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>1417.191591333635</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>2111.755787086258</v>
+        <v>2992.672448660725</v>
       </c>
       <c r="N41" t="n">
-        <v>2111.755787086258</v>
+        <v>2992.672448660725</v>
       </c>
       <c r="O41" t="n">
-        <v>2806.319982838882</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="P41" t="n">
-        <v>2806.319982838882</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q41" t="n">
-        <v>2806.319982838882</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T41" t="n">
-        <v>2586.25275571192</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U41" t="n">
-        <v>2586.25275571192</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V41" t="n">
-        <v>2586.25275571192</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W41" t="n">
-        <v>2198.539096325869</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X41" t="n">
-        <v>2198.539096325869</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y41" t="n">
-        <v>1790.252972625522</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I42" t="n">
-        <v>56.12639965677763</v>
+        <v>93.80629903465757</v>
       </c>
       <c r="J42" t="n">
-        <v>56.12639965677763</v>
+        <v>418.3646240008699</v>
       </c>
       <c r="K42" t="n">
-        <v>56.12639965677763</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>56.12639965677763</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>56.12639965677763</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>56.12639965677763</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>750.6905954094008</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>1178.627222503511</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>1719.366161135586</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1046.524611043334</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C43" t="n">
-        <v>873.9628995265592</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D43" t="n">
-        <v>708.0849067280819</v>
+        <v>443.4064111265855</v>
       </c>
       <c r="E43" t="n">
-        <v>538.3269029788192</v>
+        <v>273.6484073773227</v>
       </c>
       <c r="F43" t="n">
-        <v>361.6198489405755</v>
+        <v>96.94135333907892</v>
       </c>
       <c r="G43" t="n">
-        <v>196.0285739664031</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H43" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2651.368188264949</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S43" t="n">
-        <v>2492.126819562946</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T43" t="n">
-        <v>2246.247373141401</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U43" t="n">
-        <v>1967.814372394506</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V43" t="n">
-        <v>1711.154655114801</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W43" t="n">
-        <v>1711.154655114801</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X43" t="n">
-        <v>1465.762900448213</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y43" t="n">
-        <v>1238.343229762321</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1217.173771871843</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C44" t="n">
-        <v>779.0312990552661</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D44" t="n">
-        <v>779.0312990552661</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E44" t="n">
-        <v>345.2565542135613</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F44" t="n">
-        <v>345.2565542135613</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
-        <v>345.2565542135613</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>56.12639965677763</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J44" t="n">
-        <v>491.3810871096955</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>1185.945282862319</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>1185.945282862319</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="M44" t="n">
-        <v>1396.102936374607</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="N44" t="n">
-        <v>1396.102936374607</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.102936374607</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P44" t="n">
-        <v>2090.66713212723</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q44" t="n">
-        <v>2637.165918085825</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S44" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T44" t="n">
-        <v>2806.319982838882</v>
+        <v>4468.437738815721</v>
       </c>
       <c r="U44" t="n">
-        <v>2806.319982838882</v>
+        <v>4209.215436132738</v>
       </c>
       <c r="V44" t="n">
-        <v>2449.457813581846</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W44" t="n">
-        <v>2044.602358992879</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X44" t="n">
-        <v>1625.459895572189</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y44" t="n">
-        <v>1217.173771871843</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C45" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D45" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I45" t="n">
-        <v>56.12639965677763</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>380.68472462299</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>1061.418244693367</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>1061.418244693367</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>1061.418244693367</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>1061.418244693367</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>1061.418244693367</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S45" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T45" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V45" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y45" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>969.5932852944866</v>
+        <v>1084.16831070541</v>
       </c>
       <c r="C46" t="n">
-        <v>797.0315737777115</v>
+        <v>911.6065991886352</v>
       </c>
       <c r="D46" t="n">
-        <v>631.1535809792342</v>
+        <v>745.7286063901579</v>
       </c>
       <c r="E46" t="n">
-        <v>461.3955772299715</v>
+        <v>575.9706026408952</v>
       </c>
       <c r="F46" t="n">
-        <v>284.6885231917278</v>
+        <v>399.2635486026514</v>
       </c>
       <c r="G46" t="n">
-        <v>284.6885231917278</v>
+        <v>233.6722736284791</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7863488821023</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2672.786009559577</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S46" t="n">
-        <v>2672.786009559577</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T46" t="n">
-        <v>2471.638242656126</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U46" t="n">
-        <v>2193.205241909231</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="V46" t="n">
-        <v>1906.249733779661</v>
+        <v>2020.824759190585</v>
       </c>
       <c r="W46" t="n">
-        <v>1634.223329365953</v>
+        <v>1748.798354776877</v>
       </c>
       <c r="X46" t="n">
-        <v>1388.831574699366</v>
+        <v>1503.406600110289</v>
       </c>
       <c r="Y46" t="n">
-        <v>1161.411904013474</v>
+        <v>1275.986929424397</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>640.544895229762</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,7 +8060,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8219,10 +8221,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8231,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8289,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P6" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>200.3264657984391</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8453,19 +8455,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8532,13 +8534,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8690,7 +8692,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8699,13 +8701,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="O11" t="n">
-        <v>212.2804580932202</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8766,13 +8768,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>313.9028777775458</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>327.8732572545618</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>162.8103194923613</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>212.2804580932202</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9000,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>507.9139216242374</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>935.0031416802861</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>575.2670899541645</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9185,7 +9187,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P18" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -9401,19 +9403,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>756.3484258820594</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>92.22506899525797</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9480,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>446.2295987639959</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9635,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>459.5978749662599</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9659,7 +9661,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,25 +9719,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>164.4273484133669</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9872,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>376.7818457160665</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9896,7 +9898,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,19 +9950,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>508.6956131767483</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10370,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,13 +10433,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10592,13 +10594,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>575.2670899541636</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10607,7 +10609,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10832,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10841,10 +10843,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>168.8387779969844</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>673.2333292163981</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5799957097204</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097204</v>
+        <v>559.8357612908239</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097206</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>0.0365653694989021</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>432.2592192869798</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,22 +11299,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>212.2804580932202</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11370,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0.03656536949870315</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>411.4732220987968</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>36.03170228898847</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>65.48800580459415</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>120.4463752142712</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23498,13 +23500,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>125.6469905667124</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>129.2399247502424</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23665,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142716</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23701,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24133,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,19 +24177,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>34.67467827192567</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>40.15930123557013</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24415,10 +24417,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>208.2197249473419</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24607,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>63.43016517136702</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>114.1599680048249</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>114.1599680048248</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>29.11146680044101</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25363,10 +25365,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U37" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>140.7232059832907</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25637,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>14.50199051495957</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>16.9703772508866</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25843,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>29.99283294136535</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,13 +25918,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>5.697233001046186</v>
+        <v>329.0704884999265</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>44.28436272291219</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>23.65030257151085</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>375221.8232433251</v>
+        <v>531628.4139202138</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>375221.8232433251</v>
+        <v>531628.4139202137</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>566906.7701002061</v>
+        <v>566906.7701002064</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>566906.7701002061</v>
+        <v>566906.7701002063</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>566906.7701002064</v>
+        <v>566906.7701002061</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>566906.7701002063</v>
+        <v>566906.7701002064</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>375221.8232433251</v>
+        <v>531628.4139202137</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>375221.8232433251</v>
+        <v>531628.4139202138</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388706.8069205461</v>
+        <v>388706.806920546</v>
       </c>
       <c r="C2" t="n">
-        <v>388706.806920546</v>
+        <v>388706.8069205462</v>
       </c>
       <c r="D2" t="n">
         <v>388706.8069205461</v>
       </c>
       <c r="E2" t="n">
-        <v>252817.8237739505</v>
+        <v>358201.8164666981</v>
       </c>
       <c r="F2" t="n">
-        <v>252817.8237739504</v>
+        <v>358201.8164666981</v>
       </c>
       <c r="G2" t="n">
         <v>381971.7484995805</v>
       </c>
       <c r="H2" t="n">
-        <v>381971.7484995804</v>
+        <v>381971.7484995805</v>
       </c>
       <c r="I2" t="n">
-        <v>381971.7484995804</v>
+        <v>381971.7484995805</v>
       </c>
       <c r="J2" t="n">
         <v>381971.7484995804</v>
       </c>
       <c r="K2" t="n">
-        <v>381971.7484995803</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="L2" t="n">
-        <v>381971.7484995803</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="M2" t="n">
         <v>381971.7484995804</v>
@@ -26350,10 +26352,10 @@
         <v>381971.7484995804</v>
       </c>
       <c r="O2" t="n">
-        <v>252817.8237739504</v>
+        <v>358201.8164666982</v>
       </c>
       <c r="P2" t="n">
-        <v>252817.8237739505</v>
+        <v>358201.8164666981</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>223699.6985840449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045619</v>
+        <v>150665.7535717478</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>29089.80917260791</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>174651.3487177062</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340786</v>
+        <v>125751.0883356906</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,10 +26426,10 @@
         <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>18323.4193897997</v>
+        <v>25961.31084165931</v>
       </c>
       <c r="F4" t="n">
-        <v>18323.4193897997</v>
+        <v>25961.31084165931</v>
       </c>
       <c r="G4" t="n">
         <v>27684.07875020268</v>
@@ -26436,7 +26438,7 @@
         <v>27684.07875020268</v>
       </c>
       <c r="I4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020267</v>
       </c>
       <c r="J4" t="n">
         <v>27684.07875020268</v>
@@ -26454,10 +26456,10 @@
         <v>27684.07875020268</v>
       </c>
       <c r="O4" t="n">
-        <v>18323.4193897997</v>
+        <v>25961.3108416593</v>
       </c>
       <c r="P4" t="n">
-        <v>18323.4193897997</v>
+        <v>25961.31084165931</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232877</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-39962.71645727634</v>
+        <v>-39962.7164572764</v>
       </c>
       <c r="C6" t="n">
-        <v>183736.9821267685</v>
+        <v>183736.9821267686</v>
       </c>
       <c r="D6" t="n">
         <v>183736.9821267685</v>
       </c>
       <c r="E6" t="n">
-        <v>181667.3440445436</v>
+        <v>110309.4765709623</v>
       </c>
       <c r="F6" t="n">
-        <v>191838.3406449997</v>
+        <v>260975.2301427101</v>
       </c>
       <c r="G6" t="n">
-        <v>118509.954197476</v>
+        <v>247479.6219709774</v>
       </c>
       <c r="H6" t="n">
-        <v>276569.4311435852</v>
+        <v>276569.4311435853</v>
       </c>
       <c r="I6" t="n">
-        <v>276569.4311435852</v>
+        <v>276569.4311435853</v>
       </c>
       <c r="J6" t="n">
         <v>101918.0824258791</v>
       </c>
       <c r="K6" t="n">
-        <v>276569.4311435851</v>
+        <v>276569.4311435852</v>
       </c>
       <c r="L6" t="n">
-        <v>276569.4311435851</v>
+        <v>276569.4311435852</v>
       </c>
       <c r="M6" t="n">
-        <v>268080.3494402444</v>
+        <v>150818.3428078946</v>
       </c>
       <c r="N6" t="n">
         <v>276569.4311435852</v>
       </c>
       <c r="O6" t="n">
-        <v>191838.3406449997</v>
+        <v>260975.2301427102</v>
       </c>
       <c r="P6" t="n">
-        <v>191838.3406449998</v>
+        <v>260975.2301427101</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778134</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.680507675025</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778134</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778134</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.680507675025</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.9391592475753</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>330.5777375461333</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27388,7 +27390,7 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27552,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>56.36113619101572</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27597,10 +27599,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>117.7661826744371</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>185.505279420865</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27676,13 +27678,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>369.8422500230727</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>90.2200092229004</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,7 +27833,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>111.423652304583</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>328.833030588585</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>212.4557366627695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>216.236228642401</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>640.544895229762</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34799,7 +34801,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094345</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34863,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645589</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34939,10 +34941,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34951,7 +34953,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35009,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P6" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>200.3264657984391</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35106,7 +35108,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35173,19 +35175,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35252,13 +35254,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35270,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35410,7 +35412,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35419,19 +35421,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="O11" t="n">
-        <v>212.2804580932202</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>313.9028777775458</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35504,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>327.8732572545618</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35644,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>162.8103194923613</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35659,16 +35661,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>212.2804580932202</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>507.9139216242374</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35881,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>935.0031416802861</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>575.2670899541645</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35905,7 +35907,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35975,13 +35977,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P18" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,19 +36123,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>756.3484258820594</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>92.22506899525797</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>446.2295987639959</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36355,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>459.5978749662599</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36379,7 +36381,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>164.4273484133669</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>376.7818457160665</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36616,7 +36618,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36689,13 +36691,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36920,19 +36922,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>508.6956131767483</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37090,7 +37092,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,13 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37303,22 +37305,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>575.2670899541636</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
@@ -37327,7 +37329,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37540,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37552,19 +37554,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>168.8387779969844</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.4542274390836</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37713,7 +37715,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>673.2333292163981</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5799957097204</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097204</v>
+        <v>559.8357612908239</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097206</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>0.0365653694989021</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37871,16 +37873,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>432.2592192869798</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38017,28 +38019,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>212.2804580932202</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327045</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0.03656536949870315</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1567520.401944733</v>
+        <v>1566914.314315836</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797162</v>
+        <v>606553.2040797155</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>103.1833105422776</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>229.4879285417441</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -825,7 +825,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>28.46824604904381</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -834,10 +834,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -879,10 +879,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>125.1716544454846</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -898,16 +898,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>170.0724379985909</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>45.10878876340973</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1110,10 +1110,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>172.6623007436909</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1122,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>220.0133209501109</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>248.2979378436725</v>
       </c>
       <c r="D8" t="n">
-        <v>102.7176563887149</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -1311,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>122.9742767430572</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1378,7 +1378,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>17.96377529449097</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1387,10 +1387,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>175.0349193669826</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1533,7 +1533,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1548,7 +1548,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>155.2022955251545</v>
+        <v>231.6481586625755</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1618,16 +1618,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>297.9417647281719</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>286.5925408978669</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1767,7 +1767,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>107.4059292302406</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>18.05677735225759</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1852,7 +1852,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1861,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>67.42894579208244</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2137,10 +2137,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655127</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2247,16 +2247,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>104.630258540403</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2301,13 +2301,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>229.1468391340013</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790296</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>67.42894579208379</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2718,10 +2718,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>7.264602967362117</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2730,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>22.56919457453911</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2952,7 +2952,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>24.34318456170439</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>89.05336748755451</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3201,10 +3201,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>43.4889870101585</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3246,7 +3246,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855477</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3556,13 +3556,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>49.17722654850653</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3678,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3751,10 +3751,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>409.0867647799247</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>386.3049095281191</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -3802,7 +3802,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>3.13954148002301</v>
+        <v>94.21878984361673</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>10.15073120213241</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4036,7 +4036,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>29.92029206558524</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4149,10 +4149,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170478</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4191,10 +4191,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>260.435650476763</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>532.1876844265735</v>
+        <v>1385.055244562854</v>
       </c>
       <c r="C2" t="n">
-        <v>427.9621182222527</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D2" t="n">
-        <v>396.0927374371013</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E2" t="n">
-        <v>366.3583966358005</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F2" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L2" t="n">
-        <v>687.5406628060929</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M2" t="n">
-        <v>1348.380717347871</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N2" t="n">
-        <v>2009.22077188965</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
-        <v>2670.060826431428</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4360,22 +4360,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2449.993599304467</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2190.771296621484</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V2" t="n">
-        <v>2190.771296621484</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W2" t="n">
-        <v>1785.915842032517</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X2" t="n">
-        <v>1366.773378611828</v>
+        <v>1411.5601306673</v>
       </c>
       <c r="Y2" t="n">
-        <v>958.4872549114813</v>
+        <v>1407.314411007357</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780555</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927108</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254062</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.82106495262</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.972680272381</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005575</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244455</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>590.3333424294652</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>424.4553496309879</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4500,40 +4500,40 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596755</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567097</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434797</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013252</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136788</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W4" t="n">
-        <v>1678.133681136788</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X4" t="n">
-        <v>1551.697666545389</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1789.095648603258</v>
+        <v>173.3508218145016</v>
       </c>
       <c r="C5" t="n">
-        <v>1350.953175786681</v>
+        <v>139.2487530383289</v>
       </c>
       <c r="D5" t="n">
-        <v>915.0433909611256</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E5" t="n">
-        <v>481.2686461194209</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L5" t="n">
-        <v>1810.336013065103</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M5" t="n">
-        <v>1954.407975719777</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N5" t="n">
-        <v>1954.407975719777</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O5" t="n">
-        <v>1954.407975719777</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719777</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678372</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2194.551384075585</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>1831.934434009412</v>
       </c>
       <c r="W5" t="n">
-        <v>2669.245775882865</v>
+        <v>1427.078979420445</v>
       </c>
       <c r="X5" t="n">
-        <v>2623.681342788512</v>
+        <v>1007.936515999756</v>
       </c>
       <c r="Y5" t="n">
-        <v>2215.395219088166</v>
+        <v>599.6503922994094</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
         <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>740.3049442308646</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>740.3049442308646</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1401.144998772643</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1401.144998772643</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>959.897665623735</v>
       </c>
       <c r="C7" t="n">
         <v>959.897665623735</v>
@@ -4722,7 +4722,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434796</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013251</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>2243.522190013251</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V7" t="n">
-        <v>2069.115825625685</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W7" t="n">
-        <v>1797.089421211977</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X7" t="n">
-        <v>1551.697666545389</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y7" t="n">
-        <v>1324.277995859497</v>
+        <v>959.897665623735</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>648.8602641703436</v>
+        <v>389.6379614873604</v>
       </c>
       <c r="C8" t="n">
-        <v>210.7177913537669</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
         <v>106.9625828803175</v>
@@ -4807,25 +4807,25 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7278666362198</v>
+        <v>687.540662806093</v>
       </c>
       <c r="L8" t="n">
-        <v>632.7278666362198</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="M8" t="n">
-        <v>632.7278666362198</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4837,19 +4837,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>2307.443876365254</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W8" t="n">
-        <v>1902.588421776288</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X8" t="n">
-        <v>1483.445958355598</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y8" t="n">
-        <v>1075.159834655251</v>
+        <v>815.9375319722682</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1043.799427915185</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>871.2377163984103</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>705.359723599933</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>535.6017198506702</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>358.8946658124264</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4992,22 +4992,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2545.844385276825</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>2267.41138452993</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1980.45587640036</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1708.429471986652</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1463.037717320064</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1235.618046634173</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2104.363000055491</v>
+        <v>2408.082100998617</v>
       </c>
       <c r="C11" t="n">
-        <v>1666.220527238914</v>
+        <v>1969.93962818204</v>
       </c>
       <c r="D11" t="n">
-        <v>1230.310742413359</v>
+        <v>1534.029843356485</v>
       </c>
       <c r="E11" t="n">
-        <v>1212.165514843166</v>
+        <v>1100.25509851478</v>
       </c>
       <c r="F11" t="n">
-        <v>784.2980852523735</v>
+        <v>672.3876689239878</v>
       </c>
       <c r="G11" t="n">
-        <v>382.9002538756374</v>
+        <v>270.9898375472517</v>
       </c>
       <c r="H11" t="n">
-        <v>93.77009931885365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I11" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
         <v>529.0247867717716</v>
@@ -5047,46 +5047,46 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>1363.37507872995</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M11" t="n">
-        <v>1363.37507872995</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N11" t="n">
-        <v>2164.362573827329</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O11" t="n">
-        <v>3144.542240397635</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P11" t="n">
-        <v>3972.852115231031</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q11" t="n">
-        <v>4519.350901189626</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R11" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>4604.853092126519</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T11" t="n">
-        <v>4384.785864999558</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U11" t="n">
-        <v>4125.563562316574</v>
+        <v>4429.282663259701</v>
       </c>
       <c r="V11" t="n">
-        <v>3762.946612250401</v>
+        <v>4066.665713193527</v>
       </c>
       <c r="W11" t="n">
-        <v>3358.091157661434</v>
+        <v>3661.810258604561</v>
       </c>
       <c r="X11" t="n">
-        <v>2938.948694240745</v>
+        <v>3242.667795183871</v>
       </c>
       <c r="Y11" t="n">
-        <v>2530.662570540399</v>
+        <v>2834.381671483525</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
         <v>398.395094293342</v>
@@ -5114,28 +5114,28 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>93.77009931885365</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>774.5036193892311</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>774.5036193892311</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>774.5036193892311</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N12" t="n">
-        <v>774.5036193892311</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O12" t="n">
-        <v>774.5036193892311</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P12" t="n">
         <v>1099.098144071247</v>
@@ -5144,16 +5144,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
         <v>1187.921714638615</v>
@@ -5162,10 +5162,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1084.16831070541</v>
+        <v>1006.950267132258</v>
       </c>
       <c r="C13" t="n">
-        <v>911.6065991886352</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="D13" t="n">
-        <v>745.7286063901579</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E13" t="n">
-        <v>575.9706026408952</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F13" t="n">
-        <v>399.2635486026514</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G13" t="n">
-        <v>233.6722736284791</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H13" t="n">
-        <v>93.77009931885365</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I13" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
         <v>180.3497844835435</v>
@@ -5232,19 +5232,19 @@
         <v>2464.550262800109</v>
       </c>
       <c r="U13" t="n">
-        <v>2307.780267320155</v>
+        <v>2230.562223747002</v>
       </c>
       <c r="V13" t="n">
-        <v>2020.824759190585</v>
+        <v>1943.606715617433</v>
       </c>
       <c r="W13" t="n">
-        <v>1748.798354776877</v>
+        <v>1671.580311203724</v>
       </c>
       <c r="X13" t="n">
-        <v>1503.406600110289</v>
+        <v>1426.188556537137</v>
       </c>
       <c r="Y13" t="n">
-        <v>1275.986929424397</v>
+        <v>1198.768885851245</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2104.363000055491</v>
+        <v>2408.082100998617</v>
       </c>
       <c r="C14" t="n">
-        <v>1666.220527238914</v>
+        <v>1969.93962818204</v>
       </c>
       <c r="D14" t="n">
-        <v>1230.310742413359</v>
+        <v>1534.029843356485</v>
       </c>
       <c r="E14" t="n">
-        <v>796.5359975716538</v>
+        <v>1100.25509851478</v>
       </c>
       <c r="F14" t="n">
-        <v>495.5847200684498</v>
+        <v>672.3876689239878</v>
       </c>
       <c r="G14" t="n">
-        <v>94.18688869171365</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H14" t="n">
-        <v>94.18688869171365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I14" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>254.9523156162913</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>1089.302607574469</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>2164.362573827329</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="M14" t="n">
-        <v>2164.362573827329</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="N14" t="n">
-        <v>2164.362573827329</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O14" t="n">
-        <v>3144.542240397635</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P14" t="n">
-        <v>3972.852115231031</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q14" t="n">
-        <v>4519.350901189626</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R14" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>4604.853092126519</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T14" t="n">
-        <v>4384.785864999558</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U14" t="n">
-        <v>4125.563562316574</v>
+        <v>4429.282663259701</v>
       </c>
       <c r="V14" t="n">
-        <v>3762.946612250401</v>
+        <v>4066.665713193527</v>
       </c>
       <c r="W14" t="n">
-        <v>3358.091157661434</v>
+        <v>3661.810258604561</v>
       </c>
       <c r="X14" t="n">
-        <v>2938.948694240745</v>
+        <v>3242.667795183871</v>
       </c>
       <c r="Y14" t="n">
-        <v>2530.662570540399</v>
+        <v>2834.381671483525</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
         <v>398.395094293342</v>
@@ -5351,46 +5351,46 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>93.77009931885365</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>1254.175078389668</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>1254.175078389668</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>1757.009860797662</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
-        <v>1757.009860797662</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1757.009860797662</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
         <v>1187.921714638615</v>
@@ -5399,10 +5399,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>962.5053054384693</v>
+        <v>803.2639367364659</v>
       </c>
       <c r="C16" t="n">
-        <v>789.9435939216943</v>
+        <v>694.7730991301622</v>
       </c>
       <c r="D16" t="n">
-        <v>624.065601123217</v>
+        <v>528.8951063316849</v>
       </c>
       <c r="E16" t="n">
-        <v>454.3075973739543</v>
+        <v>359.1371025824221</v>
       </c>
       <c r="F16" t="n">
-        <v>277.6005433357104</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="G16" t="n">
-        <v>112.0092683615381</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="H16" t="n">
-        <v>93.77009931885365</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I16" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
         <v>180.3497844835435</v>
@@ -5463,25 +5463,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2710.429709221653</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T16" t="n">
-        <v>2464.550262800109</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U16" t="n">
-        <v>2186.117262053214</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V16" t="n">
-        <v>1899.161753923644</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W16" t="n">
-        <v>1627.135349509936</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X16" t="n">
-        <v>1381.743594843348</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y16" t="n">
-        <v>1154.323924157457</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
     <row r="17">
@@ -5500,13 +5500,13 @@
         <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5515,28 +5515,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5755,16 +5755,16 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1286.300469346936</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1286.300469346936</v>
+        <v>1431.851786213077</v>
       </c>
       <c r="M20" t="n">
-        <v>2443.348304557487</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
         <v>3569.079287993934</v>
@@ -5785,7 +5785,7 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
         <v>4187.483659846699</v>
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1011.560997133398</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>838.9992856166232</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D22" t="n">
-        <v>673.1212928181459</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H22" t="n">
         <v>190.9207894961043</v>
@@ -5937,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1676.191041204861</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1430.799286538274</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1203.379615852385</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2627364873769</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>1632.322702740236</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3575.440564248063</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>3402.878852731288</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>3237.000859932811</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>3067.242856183548</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>2890.535802145304</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>2724.944527171132</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>2585.042352861507</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>5113.042013538981</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>4867.162567117437</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>4799.052520862807</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V25" t="n">
-        <v>4512.097012733238</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W25" t="n">
-        <v>4240.070608319529</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X25" t="n">
-        <v>3994.678853652942</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>3767.25918296705</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>475.2748675296854</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>475.2748675296854</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>475.2748675296854</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>926.781058858859</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="D28" t="n">
-        <v>451.897152078511</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2674.705462642043</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2428.826016220498</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2150.393015473603</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1863.437507344034</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1591.411102930325</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1346.019348263738</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1118.599677577846</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883914</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716164</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>473.3149733731391</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>303.5569696238763</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>126.8499155856325</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>126.8499155856325</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>126.8499155856325</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6657,16 +6657,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>1945.413737851061</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1673.387333437352</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.99296709327</v>
+        <v>1427.995578770765</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6739,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>927.0677766831641</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>754.506065166389</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>588.6280723679117</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>418.8700686186489</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>242.1630145804051</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2674.992180466348</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2429.112734044803</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2150.679733297909</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1863.724225168339</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1591.697820754631</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1346.306066088043</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1118.886395402151</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2683.3639582443</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7183,7 +7183,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423628</v>
@@ -7204,10 +7204,10 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
         <v>4187.483659846699</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354724</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006608</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.808861774569</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955482</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113127</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338908</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.72767530925</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173582</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173582</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.41112617357</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.992967093274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1230.992967093274</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2104.363000055491</v>
+        <v>2509.218454644459</v>
       </c>
       <c r="C41" t="n">
-        <v>1666.220527238914</v>
+        <v>2071.075981827883</v>
       </c>
       <c r="D41" t="n">
-        <v>1230.310742413359</v>
+        <v>1635.166197002327</v>
       </c>
       <c r="E41" t="n">
-        <v>796.5359975716538</v>
+        <v>1201.391452160622</v>
       </c>
       <c r="F41" t="n">
-        <v>383.3170432484974</v>
+        <v>773.5240225698299</v>
       </c>
       <c r="G41" t="n">
         <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>94.18688869171365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I41" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
         <v>529.0247867717716</v>
@@ -7417,46 +7417,46 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M41" t="n">
-        <v>2992.672448660725</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N41" t="n">
-        <v>2992.672448660725</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O41" t="n">
-        <v>3972.852115231031</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P41" t="n">
-        <v>3972.852115231031</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q41" t="n">
-        <v>4519.350901189626</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R41" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>4604.853092126519</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T41" t="n">
-        <v>4384.785864999558</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U41" t="n">
-        <v>4125.563562316574</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V41" t="n">
-        <v>3762.946612250401</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W41" t="n">
-        <v>3358.091157661434</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="X41" t="n">
-        <v>2938.948694240745</v>
+        <v>3343.804148829714</v>
       </c>
       <c r="Y41" t="n">
-        <v>2530.662570540399</v>
+        <v>2935.518025129367</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
         <v>398.395094293342</v>
@@ -7484,13 +7484,13 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
-        <v>93.80629903465757</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>418.3646240008699</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
         <v>1099.098144071247</v>
@@ -7514,16 +7514,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
         <v>1187.921714638615</v>
@@ -7532,10 +7532,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>781.8461154418378</v>
+        <v>962.5053054384693</v>
       </c>
       <c r="C43" t="n">
-        <v>609.2844039250627</v>
+        <v>789.9435939216943</v>
       </c>
       <c r="D43" t="n">
-        <v>443.4064111265855</v>
+        <v>624.065601123217</v>
       </c>
       <c r="E43" t="n">
-        <v>273.6484073773227</v>
+        <v>454.3075973739543</v>
       </c>
       <c r="F43" t="n">
-        <v>96.94135333907892</v>
+        <v>277.6005433357104</v>
       </c>
       <c r="G43" t="n">
-        <v>93.77009931885365</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="H43" t="n">
-        <v>93.77009931885365</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I43" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
         <v>180.3497844835435</v>
@@ -7593,28 +7593,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2529.770519225022</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T43" t="n">
-        <v>2283.891072803477</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U43" t="n">
-        <v>2005.458072056582</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V43" t="n">
-        <v>1718.502563927013</v>
+        <v>1899.161753923644</v>
       </c>
       <c r="W43" t="n">
-        <v>1446.476159513304</v>
+        <v>1627.135349509936</v>
       </c>
       <c r="X43" t="n">
-        <v>1201.084404846717</v>
+        <v>1381.743594843348</v>
       </c>
       <c r="Y43" t="n">
-        <v>973.664734160825</v>
+        <v>1154.323924157457</v>
       </c>
     </row>
     <row r="44">
@@ -7642,10 +7642,10 @@
         <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>94.18688869171365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I44" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
         <v>529.0247867717716</v>
@@ -7654,46 +7654,46 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>1363.37507872995</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M44" t="n">
-        <v>1363.37507872995</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N44" t="n">
-        <v>2164.362573827329</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O44" t="n">
-        <v>3144.542240397635</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P44" t="n">
-        <v>3972.852115231031</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q44" t="n">
-        <v>4519.350901189626</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R44" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>4688.504965942682</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T44" t="n">
-        <v>4468.437738815721</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U44" t="n">
-        <v>4209.215436132738</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V44" t="n">
-        <v>4178.992918894773</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W44" t="n">
-        <v>3774.137464305806</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X44" t="n">
-        <v>3354.995000885117</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y44" t="n">
-        <v>2946.70887718477</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
         <v>398.395094293342</v>
@@ -7721,7 +7721,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
         <v>119.8337724793113</v>
@@ -7751,16 +7751,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
         <v>1187.921714638615</v>
@@ -7769,10 +7769,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1084.16831070541</v>
+        <v>803.2639367364659</v>
       </c>
       <c r="C46" t="n">
-        <v>911.6065991886352</v>
+        <v>630.7022252196908</v>
       </c>
       <c r="D46" t="n">
-        <v>745.7286063901579</v>
+        <v>464.8242324212135</v>
       </c>
       <c r="E46" t="n">
-        <v>575.9706026408952</v>
+        <v>295.0662286719508</v>
       </c>
       <c r="F46" t="n">
-        <v>399.2635486026514</v>
+        <v>118.359174633707</v>
       </c>
       <c r="G46" t="n">
-        <v>233.6722736284791</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H46" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I46" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
         <v>180.3497844835435</v>
@@ -7830,28 +7830,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2529.770519225022</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T46" t="n">
-        <v>2283.891072803477</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U46" t="n">
-        <v>2283.891072803477</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V46" t="n">
-        <v>2020.824759190585</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W46" t="n">
-        <v>1748.798354776877</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X46" t="n">
-        <v>1503.406600110289</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y46" t="n">
-        <v>1275.986929424397</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
   </sheetData>
@@ -7984,25 +7984,25 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>640.544895229762</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>667.5152066078572</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,7 +8060,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M5" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,28 +8294,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>200.3264657984391</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8455,10 +8455,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>145.5272350047205</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8473,10 +8473,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,13 +8534,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8695,16 +8695,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>809.0782778761404</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831379</v>
+        <v>713.2395913281089</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>327.8732572545618</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>162.8103194923613</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>809.0782778761422</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,22 +9014,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>507.9139216242374</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9172,13 +9172,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>575.2670899541645</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9187,7 +9187,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,19 +9403,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>756.3484258820594</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>459.5978749662599</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9661,7 +9661,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>376.7818457160665</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9898,7 +9898,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,19 +9950,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10831,10 +10831,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11065,10 +11065,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M41" t="n">
-        <v>559.8357612908239</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11077,13 +11077,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0365653694989021</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11302,13 +11302,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>809.0782778761404</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>411.4732220987968</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>111.2039336442333</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>120.4463752142712</v>
+        <v>44.00051207685019</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>125.6469905667124</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>110.7913121651019</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>63.43016517136668</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>120.4463752142716</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24135,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>63.43016517136708</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>40.15930123557013</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>208.2197249473419</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>135.0797604404442</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>63.43016517136702</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>195.0325855607193</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>114.1599680048248</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>140.7232059832907</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25639,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>14.50199051495957</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>11.0789435348496</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25690,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.7958207444076</v>
+        <v>69.71657238081387</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>411.8858435779263</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>329.0704884999265</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>23.65030257151085</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>531628.4139202137</v>
+        <v>531628.4139202138</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>566906.7701002064</v>
+        <v>566906.7701002063</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>566906.7701002061</v>
+        <v>566906.7701002063</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>566906.7701002064</v>
+        <v>566906.7701002063</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>531628.4139202137</v>
+        <v>531628.4139202138</v>
       </c>
     </row>
     <row r="16">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>388706.8069205462</v>
+      </c>
+      <c r="C2" t="n">
         <v>388706.806920546</v>
-      </c>
-      <c r="C2" t="n">
-        <v>388706.8069205462</v>
       </c>
       <c r="D2" t="n">
         <v>388706.8069205461</v>
       </c>
       <c r="E2" t="n">
-        <v>358201.8164666981</v>
+        <v>358201.8164666984</v>
       </c>
       <c r="F2" t="n">
-        <v>358201.8164666981</v>
+        <v>358201.8164666982</v>
       </c>
       <c r="G2" t="n">
-        <v>381971.7484995805</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="H2" t="n">
-        <v>381971.7484995805</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="I2" t="n">
-        <v>381971.7484995805</v>
+        <v>381971.7484995803</v>
       </c>
       <c r="J2" t="n">
         <v>381971.7484995804</v>
@@ -26343,10 +26343,10 @@
         <v>381971.7484995804</v>
       </c>
       <c r="L2" t="n">
-        <v>381971.7484995804</v>
+        <v>381971.7484995803</v>
       </c>
       <c r="M2" t="n">
-        <v>381971.7484995804</v>
+        <v>381971.7484995803</v>
       </c>
       <c r="N2" t="n">
         <v>381971.7484995804</v>
@@ -26355,7 +26355,7 @@
         <v>358201.8164666982</v>
       </c>
       <c r="P2" t="n">
-        <v>358201.8164666981</v>
+        <v>358201.8164666982</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150665.7535717478</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29089.80917260791</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>125751.0883356906</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>25961.31084165931</v>
+        <v>25961.31084165932</v>
       </c>
       <c r="F4" t="n">
-        <v>25961.31084165931</v>
+        <v>25961.31084165932</v>
       </c>
       <c r="G4" t="n">
         <v>27684.07875020268</v>
@@ -26438,7 +26438,7 @@
         <v>27684.07875020268</v>
       </c>
       <c r="I4" t="n">
-        <v>27684.07875020267</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="J4" t="n">
         <v>27684.07875020268</v>
@@ -26456,7 +26456,7 @@
         <v>27684.07875020268</v>
       </c>
       <c r="O4" t="n">
-        <v>25961.3108416593</v>
+        <v>25961.31084165931</v>
       </c>
       <c r="P4" t="n">
         <v>25961.31084165931</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-39962.7164572764</v>
+        <v>-39962.71645727624</v>
       </c>
       <c r="C6" t="n">
-        <v>183736.9821267686</v>
+        <v>183736.9821267685</v>
       </c>
       <c r="D6" t="n">
         <v>183736.9821267685</v>
       </c>
       <c r="E6" t="n">
-        <v>110309.4765709623</v>
+        <v>110204.2869487076</v>
       </c>
       <c r="F6" t="n">
-        <v>260975.2301427101</v>
+        <v>260870.0405204555</v>
       </c>
       <c r="G6" t="n">
-        <v>247479.6219709774</v>
+        <v>247456.3976315948</v>
       </c>
       <c r="H6" t="n">
-        <v>276569.4311435853</v>
+        <v>276546.2068042025</v>
       </c>
       <c r="I6" t="n">
-        <v>276569.4311435853</v>
+        <v>276546.2068042025</v>
       </c>
       <c r="J6" t="n">
-        <v>101918.0824258791</v>
+        <v>101894.8580864964</v>
       </c>
       <c r="K6" t="n">
-        <v>276569.4311435852</v>
+        <v>276546.2068042025</v>
       </c>
       <c r="L6" t="n">
-        <v>276569.4311435852</v>
+        <v>276546.2068042025</v>
       </c>
       <c r="M6" t="n">
-        <v>150818.3428078946</v>
+        <v>150795.1184685117</v>
       </c>
       <c r="N6" t="n">
-        <v>276569.4311435852</v>
+        <v>276546.2068042025</v>
       </c>
       <c r="O6" t="n">
-        <v>260975.2301427102</v>
+        <v>260870.0405204555</v>
       </c>
       <c r="P6" t="n">
-        <v>260975.2301427101</v>
+        <v>260870.0405204555</v>
       </c>
     </row>
   </sheetData>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.6110348778134</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106.1342618990748</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778134</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778134</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>106.1342618990748</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>330.5777375461333</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27432,22 +27432,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>185.4631102447383</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>139.5921776627263</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27599,10 +27599,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>117.7661826744371</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27636,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>86.55764165756233</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.8422500230727</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27830,10 +27830,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>111.423652304583</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>5.132153028921891</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>185.4631102447384</v>
       </c>
       <c r="D8" t="n">
-        <v>328.833030588585</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27909,7 +27909,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,7 +28064,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>120.4463752142721</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34704,25 +34704,25 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>640.544895229762</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>667.5152066078572</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34801,7 +34801,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094345</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34865,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645589</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M5" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>200.3264657984391</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35108,7 +35108,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35175,10 +35175,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>145.5272350047205</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35193,10 +35193,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35415,16 +35415,16 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>809.0782778761404</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831377</v>
+        <v>713.2395913281089</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>327.8732572545618</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>162.8103194923613</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>809.0782778761422</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,22 +35734,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>507.9139216242374</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35883,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>575.2670899541645</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35907,7 +35907,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35977,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,19 +36123,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>756.3484258820594</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36217,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>459.5978749662599</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36381,7 +36381,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36530,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>376.7818457160665</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36618,7 +36618,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36691,13 +36691,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>661.3192390158824</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37551,10 +37551,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.4542274390836</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37715,7 +37715,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37785,10 +37785,10 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M41" t="n">
-        <v>559.8357612908239</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37797,13 +37797,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0365653694989021</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38022,13 +38022,13 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>809.0782778761404</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38040,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
